--- a/posesiones/1469946.xlsx
+++ b/posesiones/1469946.xlsx
@@ -1754,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>31</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>18</v>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>22</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>14</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>13</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>18</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>8</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>7</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>17</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>19</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>9</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>17</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>19</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>7</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>17</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>7</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>17</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>18</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>24</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>13</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>16</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R65">
         <v>17</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>17</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>15</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>2</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5898,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R86">
         <v>15</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>24</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>3</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R93">
         <v>20</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R95">
         <v>5</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6689,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R105">
         <v>17</v>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7171,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R112">
         <v>23</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>25</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7418,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>18</v>
@@ -7471,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7841,10 +7841,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R129">
         <v>23</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R132">
         <v>35</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8241,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R134">
         <v>4</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R136">
         <v>7</v>
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R137">
         <v>18</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8500,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R139">
         <v>8</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R141">
         <v>11</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>8</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8803,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R145">
         <v>7</v>
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R147">
         <v>9</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9006,7 +9006,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>17</v>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>18</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>17</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9309,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R155">
         <v>10</v>
@@ -9359,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9409,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R157">
         <v>20</v>
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9741,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9791,7 +9791,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R165">
         <v>18</v>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>4</v>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R171">
         <v>20</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R173">
         <v>15</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R178">
         <v>5</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>14</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R192">
         <v>15</v>
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R196">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R198">
         <v>23</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11552,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R201">
         <v>10</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11652,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R203">
         <v>23</v>
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11937,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R209">
         <v>14</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R211">
         <v>20</v>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R212">
         <v>24</v>
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R214">
         <v>21</v>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12352,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R217">
         <v>14</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12731,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R228">
         <v>9</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R229">
         <v>14</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R233">
         <v>5</v>
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13222,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R235">
         <v>30</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R237">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R239">
         <v>29</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R244">
         <v>22</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13766,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R246">
         <v>0</v>
@@ -13810,10 +13810,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13860,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14230,10 +14230,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14283,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R257">
         <v>14</v>
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14386,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R259">
         <v>10</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R261">
         <v>9</v>
@@ -14539,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R263">
         <v>11</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R265">
         <v>20</v>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R269">
         <v>20</v>
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14986,7 +14986,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R271">
         <v>8</v>
@@ -15036,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R273">
         <v>17</v>
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R275">
         <v>13</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R277">
         <v>22</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R281">
         <v>15</v>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R283">
         <v>15</v>
@@ -15639,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15689,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R285">
         <v>13</v>
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15786,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R287">
         <v>14</v>
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R289">
         <v>17</v>
@@ -15936,7 +15936,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15986,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>24</v>
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R293">
         <v>16</v>
@@ -16142,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16192,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R295">
         <v>9</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16289,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16386,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R299">
         <v>29</v>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R301">
         <v>24</v>
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R303">
         <v>14</v>
@@ -16639,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16689,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R305">
         <v>11</v>
@@ -16739,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R307">
         <v>25</v>
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16889,7 +16889,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -16939,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17221,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R317">
         <v>34</v>
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R318">
         <v>19</v>
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17427,7 +17427,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R320">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R321">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17580,7 +17580,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R323">
         <v>10</v>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R326">
         <v>11</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17827,7 +17827,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R328">
         <v>17</v>
@@ -17880,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R329">
         <v>18</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18071,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18165,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18259,7 +18259,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18306,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R339">
         <v>19</v>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18459,7 +18459,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R341">
         <v>16</v>
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18562,7 +18562,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R343">
         <v>20</v>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18665,7 +18665,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R345">
         <v>20</v>
@@ -18718,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18815,7 +18815,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R349">
         <v>2</v>
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R350">
         <v>5</v>
@@ -18962,10 +18962,10 @@
         <v>1</v>
       </c>
       <c r="P351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19059,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19106,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19382,10 +19382,10 @@
         <v>1</v>
       </c>
       <c r="P360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q360">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19435,7 +19435,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R361">
         <v>17</v>
@@ -19488,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R363">
         <v>21</v>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R365">
         <v>16</v>
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R367">
         <v>24</v>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19838,7 +19838,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R369">
         <v>29</v>
@@ -19891,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19941,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R371">
         <v>14</v>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20044,7 +20044,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R373">
         <v>8</v>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20147,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20200,7 +20200,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R376">
         <v>20</v>
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20300,7 +20300,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R378">
         <v>8</v>
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20400,7 +20400,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R380">
         <v>14</v>
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R383">
         <v>19</v>
@@ -20600,7 +20600,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R384">
         <v>16</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R386">
         <v>10</v>
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20803,7 +20803,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R388">
         <v>10</v>
@@ -20856,7 +20856,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R389">
         <v>24</v>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20959,7 +20959,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R391">
         <v>15</v>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21056,7 +21056,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R393">
         <v>20</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21156,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R395">
         <v>5</v>
@@ -21206,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21256,7 +21256,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R397">
         <v>24</v>
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21359,7 +21359,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R399">
         <v>11</v>
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21462,7 +21462,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R401">
         <v>7</v>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21609,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21659,7 +21659,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R405">
         <v>19</v>
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21897,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21944,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21991,7 +21991,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22085,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22135,7 +22135,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R415">
         <v>29</v>
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22238,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R417">
         <v>18</v>
@@ -22291,7 +22291,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22341,7 +22341,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R419">
         <v>19</v>
@@ -22391,7 +22391,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22438,7 +22438,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22485,7 +22485,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22576,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22623,7 +22623,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22673,7 +22673,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R426">
         <v>20</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22820,7 +22820,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R429">
         <v>20</v>
@@ -22870,7 +22870,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22917,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22964,7 +22964,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23011,7 +23011,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23058,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23108,7 +23108,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R435">
         <v>45</v>
@@ -23161,7 +23161,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R436">
         <v>6</v>
@@ -23214,7 +23214,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R437">
         <v>19</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R443">
         <v>18</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23605,7 +23605,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R445">
         <v>10</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23702,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23799,7 +23799,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R449">
         <v>22</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23902,7 +23902,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R451">
         <v>1</v>
@@ -23946,10 +23946,10 @@
         <v>1</v>
       </c>
       <c r="P452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q452">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
